--- a/Excel/SkillConfig.xlsx
+++ b/Excel/SkillConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowHeight="17680"/>
+    <workbookView windowHeight="17655"/>
   </bookViews>
   <sheets>
     <sheet name="Skill" sheetId="1" r:id="rId1"/>
@@ -143,7 +143,7 @@
     <t>ConsumeList</t>
   </si>
   <si>
-    <t>EffectList</t>
+    <t>EffectStr</t>
   </si>
   <si>
     <t>int</t>
@@ -1114,23 +1114,23 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K6" sqref="K6"/>
+      <selection pane="bottomRight" activeCell="U5" sqref="U5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
   <cols>
     <col min="1" max="1" width="10.5" customWidth="1"/>
-    <col min="3" max="3" width="12.7545454545455" customWidth="1"/>
-    <col min="5" max="6" width="10.3727272727273" customWidth="1"/>
-    <col min="7" max="7" width="8.63636363636364" customWidth="1"/>
-    <col min="8" max="8" width="9.54545454545454" customWidth="1"/>
-    <col min="10" max="11" width="10.4909090909091" customWidth="1"/>
-    <col min="12" max="12" width="12.3636363636364" customWidth="1"/>
-    <col min="13" max="13" width="13.2090909090909" customWidth="1"/>
-    <col min="14" max="14" width="12.7545454545455" customWidth="1"/>
-    <col min="15" max="15" width="8.09090909090909" customWidth="1"/>
-    <col min="16" max="16" width="10.3727272727273" customWidth="1"/>
-    <col min="20" max="21" width="12.3636363636364" customWidth="1"/>
+    <col min="3" max="3" width="12.7583333333333" customWidth="1"/>
+    <col min="5" max="6" width="10.375" customWidth="1"/>
+    <col min="7" max="7" width="8.63333333333333" customWidth="1"/>
+    <col min="8" max="8" width="9.54166666666667" customWidth="1"/>
+    <col min="10" max="11" width="10.4916666666667" customWidth="1"/>
+    <col min="12" max="12" width="12.3666666666667" customWidth="1"/>
+    <col min="13" max="13" width="13.2083333333333" customWidth="1"/>
+    <col min="14" max="14" width="12.7583333333333" customWidth="1"/>
+    <col min="15" max="15" width="8.09166666666667" customWidth="1"/>
+    <col min="16" max="16" width="10.375" customWidth="1"/>
+    <col min="20" max="21" width="12.3666666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="4:5">
@@ -1141,7 +1141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="3:21">
+    <row r="3" ht="14.25" spans="3:21">
       <c r="C3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1200,7 +1200,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="3:21">
+    <row r="4" ht="14.25" spans="3:21">
       <c r="C4" s="1" t="s">
         <v>20</v>
       </c>
@@ -1259,7 +1259,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="3:21">
+    <row r="5" ht="14.25" spans="3:21">
       <c r="C5" s="1" t="s">
         <v>39</v>
       </c>

--- a/Excel/SkillConfig.xlsx
+++ b/Excel/SkillConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowHeight="17655"/>
+    <workbookView windowHeight="17680"/>
   </bookViews>
   <sheets>
     <sheet name="Skill" sheetId="1" r:id="rId1"/>
@@ -27,11 +27,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="47">
   <si>
     <t>c</t>
   </si>
   <si>
+    <t>s</t>
+  </si>
+  <si>
     <t>ID</t>
   </si>
   <si>
@@ -53,6 +56,12 @@
     <t>连招顺序</t>
   </si>
   <si>
+    <t>仇恨比例</t>
+  </si>
+  <si>
+    <t>仇恨基础</t>
+  </si>
+  <si>
     <t>目标类型</t>
   </si>
   <si>
@@ -108,6 +117,12 @@
   </si>
   <si>
     <t>Sort</t>
+  </si>
+  <si>
+    <t>HateRate</t>
+  </si>
+  <si>
+    <t>HateBase</t>
   </si>
   <si>
     <t>DstType</t>
@@ -1107,215 +1122,239 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="C2:U5"/>
+  <dimension ref="C2:W5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="U5" sqref="U5"/>
+      <selection pane="bottomRight" activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="4"/>
   <cols>
     <col min="1" max="1" width="10.5" customWidth="1"/>
-    <col min="3" max="3" width="12.7583333333333" customWidth="1"/>
-    <col min="5" max="6" width="10.375" customWidth="1"/>
-    <col min="7" max="7" width="8.63333333333333" customWidth="1"/>
-    <col min="8" max="8" width="9.54166666666667" customWidth="1"/>
-    <col min="10" max="11" width="10.4916666666667" customWidth="1"/>
-    <col min="12" max="12" width="12.3666666666667" customWidth="1"/>
-    <col min="13" max="13" width="13.2083333333333" customWidth="1"/>
-    <col min="14" max="14" width="12.7583333333333" customWidth="1"/>
-    <col min="15" max="15" width="8.09166666666667" customWidth="1"/>
-    <col min="16" max="16" width="10.375" customWidth="1"/>
-    <col min="20" max="21" width="12.3666666666667" customWidth="1"/>
+    <col min="3" max="3" width="12.7545454545455" customWidth="1"/>
+    <col min="5" max="6" width="10.3727272727273" customWidth="1"/>
+    <col min="7" max="7" width="8.63636363636364" customWidth="1"/>
+    <col min="8" max="8" width="9.54545454545454" customWidth="1"/>
+    <col min="12" max="13" width="10.4909090909091" customWidth="1"/>
+    <col min="14" max="14" width="12.3636363636364" customWidth="1"/>
+    <col min="15" max="15" width="13.2090909090909" customWidth="1"/>
+    <col min="16" max="16" width="12.7545454545455" customWidth="1"/>
+    <col min="17" max="17" width="8.09090909090909" customWidth="1"/>
+    <col min="18" max="18" width="10.3727272727273" customWidth="1"/>
+    <col min="22" max="23" width="12.3636363636364" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="4:5">
+    <row r="2" spans="4:23">
       <c r="D2" t="s">
         <v>0</v>
       </c>
       <c r="E2" t="s">
         <v>0</v>
       </c>
+      <c r="F2" t="s">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" ht="14.25" spans="3:21">
+    <row r="3" spans="3:23">
       <c r="C3" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
-    <row r="4" ht="14.25" spans="3:21">
+    <row r="4" spans="3:23">
       <c r="C4" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="T4" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
-    <row r="5" ht="14.25" spans="3:21">
+    <row r="5" spans="3:23">
       <c r="C5" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="T5" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="U5" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="W5" s="1" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
